--- a/testdatabase.xlsx
+++ b/testdatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thanhkhang\shopWebGit\KhangVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC0B0F-FAA6-4D87-82BF-7F1B405412AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71A042-ABB2-48EB-8B94-604C9965EC9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="3612" windowWidth="17280" windowHeight="8964" xr2:uid="{DED01851-DE1B-4BA7-B43A-732C032130C9}"/>
+    <workbookView xWindow="4224" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{DED01851-DE1B-4BA7-B43A-732C032130C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Shoes Dirt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -39,26 +36,68 @@
     <t>price</t>
   </si>
   <si>
-    <t>Air Jordan Legacy 312 Low</t>
-  </si>
-  <si>
-    <t>Air Jordan Legacy 312 High</t>
-  </si>
-  <si>
-    <t>Air Jordan Legacy 312 Medium</t>
-  </si>
-  <si>
-    <t>Shoes Sky</t>
-  </si>
-  <si>
-    <t>Shoes Flame</t>
+    <t>JA 1 EP</t>
+  </si>
+  <si>
+    <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a9f766ef-12bf-40d4-a8ea-8c38fc7e25d8/ja-1-ep-basketball-shoes-83QqdQ.png</t>
+  </si>
+  <si>
+    <t>Nike P-6000</t>
+  </si>
+  <si>
+    <t>Nike Court Royale 2 Low</t>
+  </si>
+  <si>
+    <t>Nike Pegasus 41</t>
+  </si>
+  <si>
+    <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e9c21b76-ad34-40c6-9338-8d910c8cc30d/court-royale-2-low-shoe-fjdwrF.png</t>
+  </si>
+  <si>
+    <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8fb34fe2-cc91-4865-9fa6-79b3b26b8ac7/pegasus-41-road-running-shoes-RZm89S.png</t>
+  </si>
+  <si>
+    <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/24677ace-081d-4ae4-9ec7-6887c682a40e/p-6000-shoes-QcQbpx.png</t>
+  </si>
+  <si>
+    <t>Nike Air Max SC</t>
+  </si>
+  <si>
+    <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/20d5e390-c097-4a93-b4ba-4865a3899883/air-max-sc-shoes-GXx6Jn.png</t>
+  </si>
+  <si>
+    <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f4b01f50-eb81-4391-817d-fc299d349420/sb-force-58-skate-shoes-LJNW5L.png</t>
+  </si>
+  <si>
+    <t>Nike SB Force 58</t>
+  </si>
+  <si>
+    <t>link-image</t>
+  </si>
+  <si>
+    <t>2,349,000₫</t>
+  </si>
+  <si>
+    <t>2,189,000₫</t>
+  </si>
+  <si>
+    <t>3,829,000₫</t>
+  </si>
+  <si>
+    <t>1,609,000₫</t>
+  </si>
+  <si>
+    <t>2,929,000₫</t>
+  </si>
+  <si>
+    <t>3,519,000₫</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +109,17 @@
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,12 +142,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,95 +468,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99844689-A1B9-42CB-B52A-CF7245B6B88D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="24.296875" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
   </sheetData>

--- a/testdatabase.xlsx
+++ b/testdatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thanhkhang\shopWebGit\KhangVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71A042-ABB2-48EB-8B94-604C9965EC9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC694F9-7B87-4B86-B105-450A654A3981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{DED01851-DE1B-4BA7-B43A-732C032130C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DED01851-DE1B-4BA7-B43A-732C032130C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +60,6 @@
     <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/24677ace-081d-4ae4-9ec7-6887c682a40e/p-6000-shoes-QcQbpx.png</t>
   </si>
   <si>
-    <t>Nike Air Max SC</t>
-  </si>
-  <si>
     <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/20d5e390-c097-4a93-b4ba-4865a3899883/air-max-sc-shoes-GXx6Jn.png</t>
   </si>
   <si>
@@ -75,29 +72,17 @@
     <t>link-image</t>
   </si>
   <si>
-    <t>2,349,000₫</t>
-  </si>
-  <si>
-    <t>2,189,000₫</t>
-  </si>
-  <si>
-    <t>3,829,000₫</t>
-  </si>
-  <si>
-    <t>1,609,000₫</t>
-  </si>
-  <si>
-    <t>2,929,000₫</t>
-  </si>
-  <si>
-    <t>3,519,000₫</t>
+    <t>Air Max SC</t>
+  </si>
+  <si>
+    <t>SB Force 58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,21 +90,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color rgb="FF111111"/>
-      <name val="Inherit"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,16 +132,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,119 +467,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99844689-A1B9-42CB-B52A-CF7245B6B88D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.69921875" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3519000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1609000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3829000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D6" s="7">
+        <v>500</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2349000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
+      <c r="D15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2189000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
